--- a/productbacklog webshop cursussen.xlsx
+++ b/productbacklog webshop cursussen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertjansen/Documents/vsa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2F589-D736-EB42-BC85-26846F9820A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E29F3A-206E-B44B-9613-4F36B1844F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="500" windowWidth="37040" windowHeight="24200" xr2:uid="{162AA7BA-1B78-784A-AFED-773F724E36D9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{162AA7BA-1B78-784A-AFED-773F724E36D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="160">
   <si>
     <t>Als</t>
   </si>
@@ -122,9 +122,6 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
@@ -194,18 +191,6 @@
     <t>vertrekkende vanuit 3.1.2</t>
   </si>
   <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t>3.4.4</t>
-  </si>
-  <si>
     <t>ik uitgebreider zie wat ik in mijn winkelwagen heb</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
   </si>
   <si>
     <t>aanmeldings/reset formulier beveiligen met captcha (tegen spam)</t>
-  </si>
-  <si>
-    <t>persoonsgegevens</t>
   </si>
   <si>
     <t>prio</t>
@@ -341,12 +323,6 @@
     <t>9.3</t>
   </si>
   <si>
-    <t>toestemming dat de gegevens enkel mogen gebruikt worden voor behandeling van bestelling en boekhouding (GDPR)</t>
-  </si>
-  <si>
-    <t>toestemming om per e-mail op de hoogte te blijven van andere evenementen of aanbiedingen (GDPR)</t>
-  </si>
-  <si>
     <t>kunnen aanmelden, registreren en mijn gegevens kunnen beheren</t>
   </si>
   <si>
@@ -380,22 +356,13 @@
     <t>informatie over de cursussen kunnen bekijken</t>
   </si>
   <si>
-    <t>cursussen per genre bekijken geordend op datum</t>
-  </si>
-  <si>
     <t>ik cursussen overzichtelijk kan bekijken</t>
-  </si>
-  <si>
-    <t>een cursus zoeken op basis van een zoekwoord / genre</t>
   </si>
   <si>
     <t>ik doelgericht een cursus kan zoeken</t>
   </si>
   <si>
     <t>een cursus in detail kunnen bekijken</t>
-  </si>
-  <si>
-    <t>bij een detail pagina per cursus ook de andere cursussen zien in het zelfde thema</t>
   </si>
   <si>
     <t>ik eenvoudig andere gelijkaardige cursussen kan bekijken</t>
@@ -414,15 +381,6 @@
   </si>
   <si>
     <t>cursussen kunnen doorzoeken</t>
-  </si>
-  <si>
-    <t>themas kunnen beheren</t>
-  </si>
-  <si>
-    <t>themas kunnen doorzoeken</t>
-  </si>
-  <si>
-    <t>op voorwaarde dat geen cursus is gekoppeld aan een thema</t>
   </si>
   <si>
     <t>ik weet wie welke inschrijving heeft gedaan en kan zie wie wel/niet heeft betaald</t>
@@ -446,9 +404,6 @@
     <t>een inschrijving kunnen verwijderen uit een winkelwagentje</t>
   </si>
   <si>
-    <t>kan ik mijn inschrijving afwerken zonder aan te melden</t>
-  </si>
-  <si>
     <t>de inschrijving definitief is</t>
   </si>
   <si>
@@ -465,15 +420,6 @@
   </si>
   <si>
     <t>toestemming dat de gegevens enkel mogen gebruikt worden voor behandeling van inschrijving en boekhouding (GDPR)</t>
-  </si>
-  <si>
-    <t>op voorwaarde dat er geen inschrijving is van een cursist</t>
-  </si>
-  <si>
-    <t>zoeken op naam, docent, datum, thema</t>
-  </si>
-  <si>
-    <t>op voorwaarde dat geen inschrijving is gekoppeld aan een cursus</t>
   </si>
   <si>
     <t>cursist gegevens kunnen beheren</t>
@@ -500,15 +446,6 @@
     <t>cursus kunnen wijzigen</t>
   </si>
   <si>
-    <t>thema kunnen toevoegen</t>
-  </si>
-  <si>
-    <t>thema kunnen wijzigen</t>
-  </si>
-  <si>
-    <t>thema kunnen verwijderen</t>
-  </si>
-  <si>
     <t>locaties kunnen beheren</t>
   </si>
   <si>
@@ -524,9 +461,6 @@
     <t>locatie kunnen verwijderen</t>
   </si>
   <si>
-    <t>op voorwaarde dat geen cursus is gekoppeld aan een locatie</t>
-  </si>
-  <si>
     <t>11.1</t>
   </si>
   <si>
@@ -540,6 +474,45 @@
   </si>
   <si>
     <t>Een cursus omvat een naam, artiest,  beeld, datum/uur (begin/eind), locatie, omschrijving, in verkoop, gepubliceerd, (early-bird) prijs en een max. hoeveelheid beschikbare inschrijvingen</t>
+  </si>
+  <si>
+    <t>zoeken op naam, docent, datum, categorie</t>
+  </si>
+  <si>
+    <t>categorieën kunnen beheren</t>
+  </si>
+  <si>
+    <t>categorieën kunnen doorzoeken</t>
+  </si>
+  <si>
+    <t>categorie kunnen toevoegen</t>
+  </si>
+  <si>
+    <t>categorie kunnen wijzigen</t>
+  </si>
+  <si>
+    <t>categorie kunnen verwijderen</t>
+  </si>
+  <si>
+    <t>cursussen per categorie bekijken geordend op datum</t>
+  </si>
+  <si>
+    <t>een cursus zoeken op basis van een zoekwoord / categorie</t>
+  </si>
+  <si>
+    <t>bij een detail pagina per cursus ook de andere cursussen zien in de zelfde categorie</t>
+  </si>
+  <si>
+    <t>op voorwaarde dat er geen inschrijving is van de cursist</t>
+  </si>
+  <si>
+    <t>op voorwaarde dat er geen cursus is gekoppeld aan de locatie</t>
+  </si>
+  <si>
+    <t>op voorwaarde dat er geen cursus is gekoppeld aan de categorie</t>
+  </si>
+  <si>
+    <t>op voorwaarde dat er geen inschrijving is gekoppeld aan de cursus</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F293D-A62C-E74D-853F-4851E1C8B084}">
-  <dimension ref="A1:AA996"/>
+  <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="186" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,10 +1003,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
@@ -1047,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1072,7 +1045,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -1084,13 +1057,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="8"/>
@@ -1111,13 +1084,13 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
@@ -1129,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="14"/>
@@ -1156,11 +1129,11 @@
     </row>
     <row r="4" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>0</v>
@@ -1172,12 +1145,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="14"/>
       <c r="J4" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1199,11 +1172,11 @@
     </row>
     <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>0</v>
@@ -1215,16 +1188,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -1262,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="8"/>
@@ -1307,16 +1280,16 @@
         <v>2</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1354,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="8"/>
@@ -1399,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>3</v>
@@ -1444,13 +1417,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="8"/>
@@ -1489,16 +1462,16 @@
         <v>2</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1536,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -1577,13 +1550,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="8"/>
@@ -1606,7 +1579,7 @@
     </row>
     <row r="14" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="13" t="s">
@@ -1622,16 +1595,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1653,7 +1626,7 @@
     </row>
     <row r="15" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="13" t="s">
@@ -1669,16 +1642,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1700,7 +1673,7 @@
     </row>
     <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
@@ -1716,12 +1689,12 @@
         <v>2</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="14"/>
       <c r="J16" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1743,7 +1716,7 @@
     </row>
     <row r="17" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
@@ -1759,12 +1732,12 @@
         <v>2</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="14"/>
       <c r="J17" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -1811,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -1870,7 +1843,7 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -1888,10 +1861,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1911,25 +1888,23 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>53</v>
+    <row r="21" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>59</v>
+      <c r="F21" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="14"/>
@@ -1953,30 +1928,26 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>54</v>
+      <c r="A22" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>59</v>
+      <c r="E22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="J22" s="14"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -1995,28 +1966,32 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>55</v>
+    <row r="23" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>4</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2038,11 +2013,11 @@
     </row>
     <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>0</v>
@@ -2051,14 +2026,20 @@
         <v>5</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -2077,13 +2058,13 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>0</v>
@@ -2095,15 +2076,17 @@
         <v>2</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -2122,27 +2105,33 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>90</v>
+    <row r="26" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2161,23 +2150,25 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>91</v>
+    <row r="27" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>5</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>140</v>
+      <c r="G27" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="14"/>
@@ -2200,33 +2191,35 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <v>4</v>
+    <row r="28" spans="1:27" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="14"/>
+      <c r="I28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2245,13 +2238,13 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>0</v>
@@ -2263,17 +2256,11 @@
         <v>2</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>8</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -2292,13 +2279,13 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="13" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>0</v>
@@ -2310,17 +2297,11 @@
         <v>2</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>9</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -2339,13 +2320,13 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>0</v>
@@ -2357,14 +2338,16 @@
         <v>2</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="14"/>
+      <c r="I31" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="J31" s="16" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2384,25 +2367,25 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>5</v>
+    <row r="32" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>104</v>
+      <c r="F32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="14"/>
@@ -2425,13 +2408,13 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>0</v>
@@ -2440,20 +2423,14 @@
         <v>5</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -2472,14 +2449,12 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="11" t="s">
         <v>0</v>
       </c>
@@ -2487,14 +2462,16 @@
         <v>5</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -2515,11 +2492,11 @@
     </row>
     <row r="35" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>0</v>
@@ -2528,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="14"/>
@@ -2554,13 +2531,13 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>0</v>
@@ -2569,20 +2546,14 @@
         <v>5</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>62</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -2601,29 +2572,35 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>67</v>
+    <row r="37" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
+        <v>6</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="13" t="s">
-        <v>66</v>
+      <c r="C37" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -2642,25 +2619,23 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>68</v>
+    <row r="38" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
+        <v>7</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="C38" s="12"/>
       <c r="D38" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>5</v>
+      <c r="E38" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="14"/>
@@ -2684,27 +2659,27 @@
       <c r="AA38" s="8"/>
     </row>
     <row r="39" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>70</v>
+      <c r="A39" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>5</v>
+      <c r="E39" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="16" t="s">
-        <v>94</v>
+      <c r="J39" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2724,25 +2699,23 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>71</v>
+    <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>5</v>
+      <c r="E40" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="14"/>
@@ -2765,25 +2738,23 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>72</v>
+    <row r="41" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="C41" s="12"/>
       <c r="D41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>5</v>
+      <c r="E41" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="14"/>
@@ -2806,34 +2777,28 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>6</v>
+    <row r="42" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="14" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -2853,9 +2818,9 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2863,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="14"/>
@@ -2892,9 +2857,9 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -2902,18 +2867,18 @@
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -2935,7 +2900,7 @@
     </row>
     <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -2943,38 +2908,18 @@
         <v>0</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-    </row>
-    <row r="46" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2982,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="14"/>
@@ -3011,9 +2956,9 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -3021,18 +2966,18 @@
         <v>0</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -3054,7 +2999,7 @@
     </row>
     <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -3062,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="14"/>
@@ -3091,9 +3036,9 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row r="49" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -3101,19 +3046,17 @@
         <v>0</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="J49" s="14"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -3134,7 +3077,7 @@
     </row>
     <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -3142,18 +3085,18 @@
         <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -3161,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="14"/>
@@ -3190,9 +3133,9 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:27" ht="43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="29" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -3200,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>2</v>
@@ -3211,7 +3154,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -3231,9 +3174,9 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="12"/>
@@ -3241,16 +3184,20 @@
         <v>0</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -3271,8 +3218,8 @@
       <c r="AA53" s="8"/>
     </row>
     <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>99</v>
+      <c r="A54" s="19">
+        <v>11</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="12"/>
@@ -3280,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="14"/>
@@ -3311,7 +3258,7 @@
     </row>
     <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="12"/>
@@ -3319,18 +3266,38 @@
         <v>0</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
     </row>
     <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="12"/>
@@ -3338,38 +3305,18 @@
         <v>0</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-    </row>
-    <row r="57" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="12"/>
@@ -3377,19 +3324,17 @@
         <v>0</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="J57" s="14"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -3408,9 +3353,9 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="43" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
-        <v>10</v>
+    <row r="58" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="12"/>
@@ -3418,21 +3363,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J58" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -3451,24 +3394,14 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
-        <v>11</v>
-      </c>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
       <c r="B59" s="8"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="8"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -3490,24 +3423,14 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>164</v>
-      </c>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
       <c r="B60" s="8"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="8"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -3529,43 +3452,43 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>165</v>
-      </c>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
       <c r="B61" s="8"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>166</v>
-      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
       <c r="B62" s="8"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>161</v>
-      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="8"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -3587,29 +3510,17 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" ht="29" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>167</v>
-      </c>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
       <c r="B63" s="8"/>
       <c r="C63" s="12"/>
-      <c r="D63" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>162</v>
-      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="24"/>
       <c r="H63" s="8"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="J63" s="14"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -30538,151 +30449,6 @@
       <c r="X991" s="8"/>
       <c r="Y991" s="8"/>
       <c r="Z991" s="8"/>
-      <c r="AA991" s="8"/>
-    </row>
-    <row r="992" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A992" s="19"/>
-      <c r="B992" s="8"/>
-      <c r="C992" s="12"/>
-      <c r="D992" s="8"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
-      <c r="G992" s="24"/>
-      <c r="H992" s="8"/>
-      <c r="I992" s="14"/>
-      <c r="J992" s="14"/>
-      <c r="K992" s="8"/>
-      <c r="L992" s="8"/>
-      <c r="M992" s="8"/>
-      <c r="N992" s="8"/>
-      <c r="O992" s="8"/>
-      <c r="P992" s="8"/>
-      <c r="Q992" s="8"/>
-      <c r="R992" s="8"/>
-      <c r="S992" s="8"/>
-      <c r="T992" s="8"/>
-      <c r="U992" s="8"/>
-      <c r="V992" s="8"/>
-      <c r="W992" s="8"/>
-      <c r="X992" s="8"/>
-      <c r="Y992" s="8"/>
-      <c r="Z992" s="8"/>
-      <c r="AA992" s="8"/>
-    </row>
-    <row r="993" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A993" s="19"/>
-      <c r="B993" s="8"/>
-      <c r="C993" s="12"/>
-      <c r="D993" s="8"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
-      <c r="G993" s="24"/>
-      <c r="H993" s="8"/>
-      <c r="I993" s="14"/>
-      <c r="J993" s="14"/>
-      <c r="K993" s="8"/>
-      <c r="L993" s="8"/>
-      <c r="M993" s="8"/>
-      <c r="N993" s="8"/>
-      <c r="O993" s="8"/>
-      <c r="P993" s="8"/>
-      <c r="Q993" s="8"/>
-      <c r="R993" s="8"/>
-      <c r="S993" s="8"/>
-      <c r="T993" s="8"/>
-      <c r="U993" s="8"/>
-      <c r="V993" s="8"/>
-      <c r="W993" s="8"/>
-      <c r="X993" s="8"/>
-      <c r="Y993" s="8"/>
-      <c r="Z993" s="8"/>
-      <c r="AA993" s="8"/>
-    </row>
-    <row r="994" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A994" s="19"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="12"/>
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
-      <c r="G994" s="24"/>
-      <c r="H994" s="8"/>
-      <c r="I994" s="14"/>
-      <c r="J994" s="14"/>
-      <c r="K994" s="8"/>
-      <c r="L994" s="8"/>
-      <c r="M994" s="8"/>
-      <c r="N994" s="8"/>
-      <c r="O994" s="8"/>
-      <c r="P994" s="8"/>
-      <c r="Q994" s="8"/>
-      <c r="R994" s="8"/>
-      <c r="S994" s="8"/>
-      <c r="T994" s="8"/>
-      <c r="U994" s="8"/>
-      <c r="V994" s="8"/>
-      <c r="W994" s="8"/>
-      <c r="X994" s="8"/>
-      <c r="Y994" s="8"/>
-      <c r="Z994" s="8"/>
-      <c r="AA994" s="8"/>
-    </row>
-    <row r="995" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A995" s="19"/>
-      <c r="B995" s="8"/>
-      <c r="C995" s="12"/>
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
-      <c r="G995" s="24"/>
-      <c r="H995" s="8"/>
-      <c r="I995" s="14"/>
-      <c r="J995" s="14"/>
-      <c r="K995" s="8"/>
-      <c r="L995" s="8"/>
-      <c r="M995" s="8"/>
-      <c r="N995" s="8"/>
-      <c r="O995" s="8"/>
-      <c r="P995" s="8"/>
-      <c r="Q995" s="8"/>
-      <c r="R995" s="8"/>
-      <c r="S995" s="8"/>
-      <c r="T995" s="8"/>
-      <c r="U995" s="8"/>
-      <c r="V995" s="8"/>
-      <c r="W995" s="8"/>
-      <c r="X995" s="8"/>
-      <c r="Y995" s="8"/>
-      <c r="Z995" s="8"/>
-      <c r="AA995" s="8"/>
-    </row>
-    <row r="996" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A996" s="19"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="12"/>
-      <c r="D996" s="8"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
-      <c r="G996" s="24"/>
-      <c r="H996" s="8"/>
-      <c r="I996" s="14"/>
-      <c r="J996" s="14"/>
-      <c r="K996" s="8"/>
-      <c r="L996" s="8"/>
-      <c r="M996" s="8"/>
-      <c r="N996" s="8"/>
-      <c r="O996" s="8"/>
-      <c r="P996" s="8"/>
-      <c r="Q996" s="8"/>
-      <c r="R996" s="8"/>
-      <c r="S996" s="8"/>
-      <c r="T996" s="8"/>
-      <c r="U996" s="8"/>
-      <c r="V996" s="8"/>
-      <c r="W996" s="8"/>
-      <c r="X996" s="8"/>
-      <c r="Y996" s="8"/>
-      <c r="Z996" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/productbacklog webshop cursussen.xlsx
+++ b/productbacklog webshop cursussen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertjansen/Documents/vsa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertjansen/Documents/vsa herverlee/repos/vsa-heverlee-nj2020-cursussen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E29F3A-206E-B44B-9613-4F36B1844F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE698DF-25EB-5A4A-8189-640419851FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{162AA7BA-1B78-784A-AFED-773F724E36D9}"/>
   </bookViews>
@@ -473,9 +473,6 @@
     <t>11.4</t>
   </si>
   <si>
-    <t>Een cursus omvat een naam, artiest,  beeld, datum/uur (begin/eind), locatie, omschrijving, in verkoop, gepubliceerd, (early-bird) prijs en een max. hoeveelheid beschikbare inschrijvingen</t>
-  </si>
-  <si>
     <t>zoeken op naam, docent, datum, categorie</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>op voorwaarde dat er geen inschrijving is gekoppeld aan de cursus</t>
+  </si>
+  <si>
+    <t>Een cursus omvat een naam, docent,  beeld, datum/uur (begin/eind), locatie, omschrijving, in verkoop, gepubliceerd, (early-bird) prijs en een max. hoeveelheid beschikbare inschrijvingen</t>
   </si>
 </sst>
 </file>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F293D-A62C-E74D-853F-4851E1C8B084}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="186" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="186" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>3</v>
@@ -1289,7 +1289,7 @@
         <v>107</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>3</v>
@@ -2798,7 +2798,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -2878,7 +2878,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -2977,7 +2977,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="14"/>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="14"/>
@@ -3091,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="14"/>
@@ -3133,7 +3133,7 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>100</v>
       </c>
@@ -3149,12 +3149,12 @@
         <v>2</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -3353,7 +3353,7 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="43" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>145</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
